--- a/doc/SRDP.xlsx
+++ b/doc/SRDP.xlsx
@@ -8,17 +8,18 @@
   </bookViews>
   <sheets>
     <sheet name="Frame Format" sheetId="3" r:id="rId1"/>
-    <sheet name="Register Map" sheetId="4" r:id="rId2"/>
+    <sheet name="Register Map (Demoboard)" sheetId="5" r:id="rId2"/>
+    <sheet name="Register Map (GPS)" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Frame Format'!$A$1:$K$28</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Frame Format'!$A$1:$K$20</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="110">
   <si>
     <t>CRC16</t>
   </si>
@@ -71,18 +72,6 @@
     <t>Read Acknowledge</t>
   </si>
   <si>
-    <t>Watch Register</t>
-  </si>
-  <si>
-    <t>Watch Acknowledge</t>
-  </si>
-  <si>
-    <t>Unwatch Register</t>
-  </si>
-  <si>
-    <t>Unwatch Acknowledge</t>
-  </si>
-  <si>
     <t>Write Register</t>
   </si>
   <si>
@@ -129,9 +118,6 @@
   </si>
   <si>
     <t>Bits</t>
-  </si>
-  <si>
-    <t>Field</t>
   </si>
   <si>
     <t>Synchronize</t>
@@ -252,12 +238,6 @@
   </si>
   <si>
     <t>Write Error</t>
-  </si>
-  <si>
-    <t>Watch Error</t>
-  </si>
-  <si>
-    <t>Unwatch Error</t>
   </si>
   <si>
     <t>Change Error</t>
@@ -294,12 +274,135 @@
   <si>
     <t>Frame Sequence Number</t>
   </si>
+  <si>
+    <r>
+      <t>Register Map Example</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="26"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Arduino Demoboard</t>
+    </r>
+  </si>
+  <si>
+    <t>/device/1/led1</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>WRITE</t>
+  </si>
+  <si>
+    <t>LED 1 (monochrome "red"). If non-zero, turn on LED. Else off.</t>
+  </si>
+  <si>
+    <t>LED 2 (monochrome "green"). If non-zero, turn on LED. Else off.</t>
+  </si>
+  <si>
+    <t>BBB</t>
+  </si>
+  <si>
+    <t>/device/1/led2</t>
+  </si>
+  <si>
+    <t>/device/1/led3</t>
+  </si>
+  <si>
+    <t>LED 3 ("RGB"). Set RGB value.</t>
+  </si>
+  <si>
+    <t>Button 1 watch: if non-zero, button will generate events.</t>
+  </si>
+  <si>
+    <t>Button 1: if non-zero, button is pressed.</t>
+  </si>
+  <si>
+    <t>Button 2: if non-zero, button is pressed.</t>
+  </si>
+  <si>
+    <t>Button 2 watch: if non-zero, button will generate events.</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>Poti 1: value from 0 - MAX (see other config register)</t>
+  </si>
+  <si>
+    <t>/device/1/button1</t>
+  </si>
+  <si>
+    <t>/device/1/button1#watch</t>
+  </si>
+  <si>
+    <t>/device/1/button2</t>
+  </si>
+  <si>
+    <t>/device/1/button2#watch</t>
+  </si>
+  <si>
+    <t>/device/1/poti1</t>
+  </si>
+  <si>
+    <t>/device/1/poti1#max</t>
+  </si>
+  <si>
+    <t>Poti 1: MAX value configuration.</t>
+  </si>
+  <si>
+    <t>/device/1/poti2</t>
+  </si>
+  <si>
+    <t>/device/1/poti2#max</t>
+  </si>
+  <si>
+    <t>Poti 2: value from 0 - MAX (see other config register)</t>
+  </si>
+  <si>
+    <t>Poti 2: MAX value configuration.</t>
+  </si>
+  <si>
+    <t>/device/1/poti1#watch</t>
+  </si>
+  <si>
+    <t>/device/1/poti1#updateRate</t>
+  </si>
+  <si>
+    <t>Poti 1 watch: if non-zero, poti will generate events whenever poti value changes</t>
+  </si>
+  <si>
+    <t>Poti 1 update rate: if non-zero, poti will generate event every N ms (whether value has changed or not).</t>
+  </si>
+  <si>
+    <t>/device/1/poti2#watch</t>
+  </si>
+  <si>
+    <t>/device/1/poti2#updateRate</t>
+  </si>
+  <si>
+    <t>Poti 2 watch: if non-zero, poti will generate events whenever poti value changes</t>
+  </si>
+  <si>
+    <t>Poti 2 update rate: if non-zero, poti will generate event every N ms (whether value has changed or not).</t>
+  </si>
+  <si>
+    <t>Note: Our Arduino Demoboard has the following hardware connected: 2 monochrome LEDs, 1 RGB LED, 2 Buttons, 2 Potis</t>
+  </si>
+  <si>
+    <t>Field*</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -380,6 +483,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -584,7 +694,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -753,6 +863,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1050,20 +1162,19 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="25.28515625" style="2" customWidth="1"/>
     <col min="2" max="2" width="1.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" customWidth="1"/>
-    <col min="4" max="5" width="9" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" customWidth="1"/>
-    <col min="7" max="11" width="22.140625" customWidth="1"/>
+    <col min="3" max="4" width="9" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+    <col min="6" max="11" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="33.75">
@@ -1071,7 +1182,7 @@
         <v>7</v>
       </c>
       <c r="B1" s="3"/>
-      <c r="C1" s="5"/>
+      <c r="E1" s="5"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -1082,9 +1193,9 @@
     <row r="2" spans="1:11" ht="30.75" customHeight="1" thickBot="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
-      <c r="C2" s="5"/>
+      <c r="C2" s="6"/>
       <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
+      <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
@@ -1094,20 +1205,20 @@
     </row>
     <row r="3" spans="1:11" thickTop="1">
       <c r="A3" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B3" s="7"/>
-      <c r="C3" s="39">
+      <c r="C3" s="33">
+        <v>2</v>
+      </c>
+      <c r="D3" s="34">
+        <v>2</v>
+      </c>
+      <c r="E3" s="35">
+        <v>12</v>
+      </c>
+      <c r="F3" s="39">
         <v>16</v>
-      </c>
-      <c r="D3" s="33">
-        <v>2</v>
-      </c>
-      <c r="E3" s="34">
-        <v>3</v>
-      </c>
-      <c r="F3" s="35">
-        <v>11</v>
       </c>
       <c r="G3" s="39">
         <v>16</v>
@@ -1122,25 +1233,25 @@
         <v>16</v>
       </c>
       <c r="K3" s="39" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="25.5" customHeight="1" thickBot="1">
       <c r="A4" s="7" t="s">
-        <v>37</v>
+        <v>109</v>
       </c>
       <c r="B4" s="7"/>
-      <c r="C4" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="D4" s="36" t="s">
+      <c r="C4" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="40" t="s">
         <v>71</v>
-      </c>
-      <c r="E4" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="38" t="s">
-        <v>4</v>
       </c>
       <c r="G4" s="40" t="s">
         <v>3</v>
@@ -1160,10 +1271,10 @@
     </row>
     <row r="5" spans="1:11" s="26" customFormat="1" ht="6.75" customHeight="1" thickTop="1">
       <c r="B5" s="25"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="58"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="49"/>
       <c r="G5" s="45"/>
       <c r="H5" s="45"/>
       <c r="I5" s="45"/>
@@ -1171,14 +1282,13 @@
       <c r="K5" s="49"/>
     </row>
     <row r="6" spans="1:11" s="26" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A6" s="25"/>
+      <c r="A6" s="67" t="s">
+        <v>70</v>
+      </c>
       <c r="B6" s="25"/>
-      <c r="C6" s="50" t="s">
-        <v>77</v>
-      </c>
-      <c r="D6" s="55"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="58"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="54"/>
+      <c r="F6" s="46"/>
       <c r="G6" s="46"/>
       <c r="H6" s="46"/>
       <c r="I6" s="46"/>
@@ -1188,10 +1298,10 @@
     <row r="7" spans="1:11" s="26" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
       <c r="A7" s="25"/>
       <c r="B7" s="25"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="58"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="50"/>
       <c r="G7" s="46"/>
       <c r="H7" s="46"/>
       <c r="I7" s="46"/>
@@ -1200,29 +1310,29 @@
     </row>
     <row r="8" spans="1:11" s="65" customFormat="1" ht="34.5" customHeight="1" thickTop="1">
       <c r="A8" s="59" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B8" s="59"/>
-      <c r="C8" s="60" t="s">
-        <v>79</v>
-      </c>
-      <c r="D8" s="61">
-        <v>1</v>
-      </c>
-      <c r="E8" s="62">
-        <v>1</v>
-      </c>
-      <c r="F8" s="63">
+      <c r="C8" s="61">
+        <v>1</v>
+      </c>
+      <c r="D8" s="62">
+        <v>1</v>
+      </c>
+      <c r="E8" s="63">
         <v>0</v>
+      </c>
+      <c r="F8" s="60" t="s">
+        <v>72</v>
       </c>
       <c r="G8" s="64">
         <v>0</v>
       </c>
       <c r="H8" s="64" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="I8" s="64" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="J8" s="64" t="s">
         <v>14</v>
@@ -1235,10 +1345,10 @@
     <row r="9" spans="1:11" s="20" customFormat="1" ht="9.75" customHeight="1">
       <c r="A9" s="28"/>
       <c r="B9" s="28"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="42"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="51"/>
       <c r="G9" s="47"/>
       <c r="H9" s="47"/>
       <c r="I9" s="47"/>
@@ -1250,17 +1360,17 @@
         <v>9</v>
       </c>
       <c r="B10" s="32"/>
-      <c r="C10" s="52" t="s">
-        <v>79</v>
-      </c>
-      <c r="D10" s="57">
-        <v>1</v>
-      </c>
-      <c r="E10" s="44">
+      <c r="C10" s="57">
+        <v>1</v>
+      </c>
+      <c r="D10" s="44">
         <v>2</v>
       </c>
-      <c r="F10" s="43" t="s">
+      <c r="E10" s="43" t="s">
         <v>10</v>
+      </c>
+      <c r="F10" s="52" t="s">
+        <v>72</v>
       </c>
       <c r="G10" s="48" t="s">
         <v>11</v>
@@ -1284,26 +1394,26 @@
         <v>16</v>
       </c>
       <c r="B11" s="32"/>
-      <c r="C11" s="52" t="s">
-        <v>79</v>
-      </c>
-      <c r="D11" s="57">
+      <c r="C11" s="57">
         <v>2</v>
       </c>
-      <c r="E11" s="44">
+      <c r="D11" s="44">
         <v>2</v>
       </c>
-      <c r="F11" s="43" t="s">
+      <c r="E11" s="43" t="s">
         <v>10</v>
+      </c>
+      <c r="F11" s="52" t="s">
+        <v>72</v>
       </c>
       <c r="G11" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H11" s="48" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I11" s="48" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J11" s="48" t="s">
         <v>14</v>
@@ -1314,20 +1424,20 @@
     </row>
     <row r="12" spans="1:11" s="8" customFormat="1" ht="34.5" customHeight="1">
       <c r="A12" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="32"/>
+      <c r="C12" s="57">
+        <v>3</v>
+      </c>
+      <c r="D12" s="44">
+        <v>2</v>
+      </c>
+      <c r="E12" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="52" t="s">
         <v>72</v>
-      </c>
-      <c r="B12" s="32"/>
-      <c r="C12" s="52" t="s">
-        <v>79</v>
-      </c>
-      <c r="D12" s="57">
-        <v>3</v>
-      </c>
-      <c r="E12" s="44">
-        <v>2</v>
-      </c>
-      <c r="F12" s="43" t="s">
-        <v>10</v>
       </c>
       <c r="G12" s="48" t="s">
         <v>11</v>
@@ -1336,22 +1446,22 @@
         <v>0</v>
       </c>
       <c r="I12" s="48" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="J12" s="48" t="s">
         <v>14</v>
       </c>
       <c r="K12" s="52" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="20" customFormat="1" ht="9.75" customHeight="1">
       <c r="A13" s="28"/>
       <c r="B13" s="28"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="42"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="51"/>
       <c r="G13" s="47"/>
       <c r="H13" s="47"/>
       <c r="I13" s="47"/>
@@ -1360,62 +1470,62 @@
     </row>
     <row r="14" spans="1:11" s="20" customFormat="1" ht="34.5" customHeight="1">
       <c r="A14" s="28" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B14" s="28"/>
-      <c r="C14" s="51" t="s">
-        <v>79</v>
-      </c>
-      <c r="D14" s="56">
-        <v>1</v>
-      </c>
-      <c r="E14" s="41">
+      <c r="C14" s="56">
+        <v>1</v>
+      </c>
+      <c r="D14" s="41">
         <v>3</v>
       </c>
-      <c r="F14" s="42" t="s">
+      <c r="E14" s="42" t="s">
         <v>10</v>
+      </c>
+      <c r="F14" s="51" t="s">
+        <v>72</v>
       </c>
       <c r="G14" s="47" t="s">
         <v>11</v>
       </c>
       <c r="H14" s="47" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I14" s="47" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="J14" s="47" t="s">
         <v>14</v>
       </c>
       <c r="K14" s="51" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="20" customFormat="1" ht="34.5" customHeight="1">
       <c r="A15" s="28" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B15" s="28"/>
-      <c r="C15" s="51" t="s">
-        <v>79</v>
-      </c>
-      <c r="D15" s="56">
+      <c r="C15" s="56">
         <v>2</v>
       </c>
-      <c r="E15" s="41">
+      <c r="D15" s="41">
         <v>3</v>
       </c>
-      <c r="F15" s="42" t="s">
+      <c r="E15" s="42" t="s">
         <v>10</v>
+      </c>
+      <c r="F15" s="51" t="s">
+        <v>72</v>
       </c>
       <c r="G15" s="47" t="s">
         <v>11</v>
       </c>
       <c r="H15" s="47" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I15" s="47" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J15" s="47" t="s">
         <v>14</v>
@@ -1427,20 +1537,20 @@
     </row>
     <row r="16" spans="1:11" s="20" customFormat="1" ht="34.5" customHeight="1">
       <c r="A16" s="28" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B16" s="28"/>
-      <c r="C16" s="51" t="s">
-        <v>79</v>
-      </c>
-      <c r="D16" s="56">
+      <c r="C16" s="56">
         <v>3</v>
       </c>
-      <c r="E16" s="41">
+      <c r="D16" s="41">
         <v>3</v>
       </c>
-      <c r="F16" s="42" t="s">
+      <c r="E16" s="42" t="s">
         <v>10</v>
+      </c>
+      <c r="F16" s="51" t="s">
+        <v>72</v>
       </c>
       <c r="G16" s="47" t="s">
         <v>11</v>
@@ -1449,22 +1559,22 @@
         <v>0</v>
       </c>
       <c r="I16" s="47" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="J16" s="47" t="s">
         <v>14</v>
       </c>
       <c r="K16" s="51" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:11" s="20" customFormat="1" ht="9.75" customHeight="1">
       <c r="A17" s="28"/>
       <c r="B17" s="28"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="42"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="51"/>
       <c r="G17" s="47"/>
       <c r="H17" s="47"/>
       <c r="I17" s="47"/>
@@ -1473,54 +1583,53 @@
     </row>
     <row r="18" spans="1:11" s="8" customFormat="1" ht="34.5" customHeight="1">
       <c r="A18" s="32" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B18" s="32"/>
-      <c r="C18" s="52" t="s">
-        <v>79</v>
-      </c>
-      <c r="D18" s="57">
-        <v>1</v>
-      </c>
-      <c r="E18" s="44">
+      <c r="C18" s="57">
+        <v>1</v>
+      </c>
+      <c r="D18" s="44">
         <v>4</v>
       </c>
-      <c r="F18" s="43" t="s">
+      <c r="E18" s="43" t="s">
         <v>10</v>
+      </c>
+      <c r="F18" s="52" t="s">
+        <v>72</v>
       </c>
       <c r="G18" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="H18" s="48">
-        <v>0</v>
-      </c>
-      <c r="I18" s="48">
-        <v>0</v>
+      <c r="H18" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" s="48" t="s">
+        <v>26</v>
       </c>
       <c r="J18" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="K18" s="52" t="str">
-        <f>"-"</f>
-        <v>-</v>
+      <c r="K18" s="52" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="8" customFormat="1" ht="34.5" customHeight="1">
       <c r="A19" s="32" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="B19" s="32"/>
-      <c r="C19" s="52" t="s">
-        <v>79</v>
-      </c>
-      <c r="D19" s="57">
+      <c r="C19" s="57">
         <v>2</v>
       </c>
-      <c r="E19" s="44">
+      <c r="D19" s="44">
         <v>4</v>
       </c>
-      <c r="F19" s="43" t="s">
+      <c r="E19" s="43" t="s">
         <v>10</v>
+      </c>
+      <c r="F19" s="52" t="s">
+        <v>72</v>
       </c>
       <c r="G19" s="48" t="s">
         <v>11</v>
@@ -1541,20 +1650,20 @@
     </row>
     <row r="20" spans="1:11" s="8" customFormat="1" ht="34.5" customHeight="1">
       <c r="A20" s="32" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B20" s="32"/>
-      <c r="C20" s="52" t="s">
-        <v>79</v>
-      </c>
-      <c r="D20" s="57">
+      <c r="C20" s="57">
         <v>3</v>
       </c>
-      <c r="E20" s="44">
+      <c r="D20" s="44">
         <v>4</v>
       </c>
-      <c r="F20" s="43" t="s">
+      <c r="E20" s="43" t="s">
         <v>10</v>
+      </c>
+      <c r="F20" s="52" t="s">
+        <v>72</v>
       </c>
       <c r="G20" s="48" t="s">
         <v>11</v>
@@ -1563,285 +1672,58 @@
         <v>0</v>
       </c>
       <c r="I20" s="48" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="J20" s="48" t="s">
         <v>14</v>
       </c>
       <c r="K20" s="52" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" s="20" customFormat="1" ht="9.75" customHeight="1">
-      <c r="A21" s="28"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="47"/>
-      <c r="K21" s="51"/>
-    </row>
-    <row r="22" spans="1:11" s="20" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A22" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="28"/>
-      <c r="C22" s="51" t="s">
-        <v>79</v>
-      </c>
-      <c r="D22" s="56">
-        <v>1</v>
-      </c>
-      <c r="E22" s="41">
-        <v>5</v>
-      </c>
-      <c r="F22" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="H22" s="47">
-        <v>0</v>
-      </c>
-      <c r="I22" s="47">
-        <v>0</v>
-      </c>
-      <c r="J22" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="K22" s="51" t="str">
-        <f>"-"</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" s="20" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A23" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="28"/>
-      <c r="C23" s="51" t="s">
-        <v>79</v>
-      </c>
-      <c r="D23" s="56">
-        <v>2</v>
-      </c>
-      <c r="E23" s="41">
-        <v>5</v>
-      </c>
-      <c r="F23" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="G23" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="H23" s="47">
-        <v>0</v>
-      </c>
-      <c r="I23" s="47">
-        <v>0</v>
-      </c>
-      <c r="J23" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="K23" s="51" t="str">
-        <f>"-"</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" s="20" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A24" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="B24" s="28"/>
-      <c r="C24" s="51" t="s">
-        <v>79</v>
-      </c>
-      <c r="D24" s="56">
-        <v>3</v>
-      </c>
-      <c r="E24" s="41">
-        <v>5</v>
-      </c>
-      <c r="F24" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="G24" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="H24" s="47">
-        <v>0</v>
-      </c>
-      <c r="I24" s="47" t="s">
-        <v>35</v>
-      </c>
-      <c r="J24" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="K24" s="51" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" s="20" customFormat="1" ht="9.75" customHeight="1">
-      <c r="A25" s="28"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="51"/>
-    </row>
-    <row r="26" spans="1:11" s="8" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A26" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="32"/>
-      <c r="C26" s="52" t="s">
-        <v>79</v>
-      </c>
-      <c r="D26" s="57">
-        <v>1</v>
-      </c>
-      <c r="E26" s="44">
-        <v>6</v>
-      </c>
-      <c r="F26" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="G26" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H26" s="48" t="s">
-        <v>28</v>
-      </c>
-      <c r="I26" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="J26" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="K26" s="52" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" s="8" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A27" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="B27" s="32"/>
-      <c r="C27" s="52" t="s">
-        <v>79</v>
-      </c>
-      <c r="D27" s="57">
-        <v>2</v>
-      </c>
-      <c r="E27" s="44">
-        <v>6</v>
-      </c>
-      <c r="F27" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="G27" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H27" s="48">
-        <v>0</v>
-      </c>
-      <c r="I27" s="48">
-        <v>0</v>
-      </c>
-      <c r="J27" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="K27" s="52" t="str">
-        <f>"-"</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" s="8" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A28" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="B28" s="32"/>
-      <c r="C28" s="52" t="s">
-        <v>79</v>
-      </c>
-      <c r="D28" s="57">
-        <v>3</v>
-      </c>
-      <c r="E28" s="44">
-        <v>6</v>
-      </c>
-      <c r="F28" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="G28" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H28" s="48">
-        <v>0</v>
-      </c>
-      <c r="I28" s="48" t="s">
-        <v>35</v>
-      </c>
-      <c r="J28" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="K28" s="52" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" s="20" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A29" s="29"/>
-      <c r="B29" s="29"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-    </row>
-    <row r="30" spans="1:11" s="23" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A30" s="30"/>
-      <c r="B30" s="30"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-    </row>
-    <row r="31" spans="1:11" s="23" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A31" s="30"/>
-      <c r="B31" s="30"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-    </row>
-    <row r="32" spans="1:11" s="23" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A32" s="30"/>
-      <c r="B32" s="30"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-    </row>
-    <row r="33" spans="1:5" s="23" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A33" s="30"/>
-      <c r="B33" s="30"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-    </row>
-    <row r="34" spans="1:5" s="23" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A34" s="30"/>
-      <c r="B34" s="30"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-    </row>
-    <row r="35" spans="1:5" ht="24.75" customHeight="1"/>
-    <row r="36" spans="1:5" ht="24.75" customHeight="1"/>
-    <row r="37" spans="1:5" ht="24.75" customHeight="1"/>
+    </row>
+    <row r="21" spans="1:11" s="20" customFormat="1" ht="30.75" customHeight="1">
+      <c r="A21" s="29"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+    </row>
+    <row r="22" spans="1:11" s="23" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A22" s="30"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+    </row>
+    <row r="23" spans="1:11" s="23" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A23" s="30"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+    </row>
+    <row r="24" spans="1:11" s="23" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A24" s="30"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+    </row>
+    <row r="25" spans="1:11" s="23" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A25" s="30"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+    </row>
+    <row r="26" spans="1:11" s="23" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A26" s="30"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+    </row>
+    <row r="27" spans="1:11" ht="24.75" customHeight="1"/>
+    <row r="28" spans="1:11" ht="24.75" customHeight="1"/>
+    <row r="29" spans="1:11" ht="24.75" customHeight="1"/>
   </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.65" right="0.49" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="67" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="71" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1850,10 +1732,500 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
+  <dimension ref="B1:I24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="33.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="41.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" customWidth="1"/>
+    <col min="7" max="7" width="27.140625" customWidth="1"/>
+    <col min="8" max="8" width="77.140625" customWidth="1"/>
+    <col min="9" max="9" width="59.85546875" customWidth="1"/>
+    <col min="10" max="10" width="4.85546875" customWidth="1"/>
+    <col min="11" max="11" width="5.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" ht="33.75" customHeight="1">
+      <c r="B1" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9" ht="16.5" customHeight="1">
+      <c r="B2" s="66" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" ht="27.75" customHeight="1">
+      <c r="B3" s="66"/>
+    </row>
+    <row r="4" spans="2:9" s="9" customFormat="1" ht="33.75" customHeight="1">
+      <c r="B4" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" s="20" customFormat="1" ht="33.75" customHeight="1">
+      <c r="B5" s="18" t="str">
+        <f>"/id"</f>
+        <v>/id</v>
+      </c>
+      <c r="C5" s="19">
+        <v>0</v>
+      </c>
+      <c r="D5" s="19">
+        <v>1</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" s="22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" s="8" customFormat="1" ht="33.75" customHeight="1">
+      <c r="B6" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="14">
+        <v>0</v>
+      </c>
+      <c r="D6" s="14">
+        <v>2</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" s="23" customFormat="1" ht="33.75" customHeight="1">
+      <c r="B7" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="19">
+        <v>0</v>
+      </c>
+      <c r="D7" s="19">
+        <v>3</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="20"/>
+      <c r="H7" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7" s="27"/>
+    </row>
+    <row r="8" spans="2:9" s="8" customFormat="1" ht="33.75" customHeight="1">
+      <c r="B8" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="14">
+        <v>1</v>
+      </c>
+      <c r="D8" s="14">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" s="20" customFormat="1" ht="33.75" customHeight="1">
+      <c r="B9" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="19">
+        <v>1</v>
+      </c>
+      <c r="D9" s="19">
+        <v>2</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" s="17" customFormat="1" ht="33.75" customHeight="1">
+      <c r="B10" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="14">
+        <v>1</v>
+      </c>
+      <c r="D10" s="14">
+        <v>1024</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" s="23" customFormat="1" ht="33.75" customHeight="1">
+      <c r="B11" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="19">
+        <v>1</v>
+      </c>
+      <c r="D11" s="19">
+        <v>1025</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" s="17" customFormat="1" ht="33.75" customHeight="1">
+      <c r="B12" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="14">
+        <v>1</v>
+      </c>
+      <c r="D12" s="14">
+        <v>1026</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" s="23" customFormat="1" ht="33.75" customHeight="1">
+      <c r="B13" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="19">
+        <v>1</v>
+      </c>
+      <c r="D13" s="19">
+        <v>1027</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" s="17" customFormat="1" ht="33.75" customHeight="1">
+      <c r="B14" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="14">
+        <v>1</v>
+      </c>
+      <c r="D14" s="14">
+        <v>1028</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" s="23" customFormat="1" ht="33.75" customHeight="1">
+      <c r="B15" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="19">
+        <v>1</v>
+      </c>
+      <c r="D15" s="19">
+        <v>1029</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" s="17" customFormat="1" ht="33.75" customHeight="1">
+      <c r="B16" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="14">
+        <v>1</v>
+      </c>
+      <c r="D16" s="14">
+        <v>1030</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" s="23" customFormat="1" ht="33.75" customHeight="1">
+      <c r="B17" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" s="19">
+        <v>1</v>
+      </c>
+      <c r="D17" s="19">
+        <v>1031</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" s="17" customFormat="1" ht="33.75" customHeight="1">
+      <c r="B18" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="14">
+        <v>1</v>
+      </c>
+      <c r="D18" s="14">
+        <v>1032</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" s="23" customFormat="1" ht="33.75" customHeight="1">
+      <c r="B19" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="19">
+        <v>1</v>
+      </c>
+      <c r="D19" s="19">
+        <v>1033</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" s="17" customFormat="1" ht="33.75" customHeight="1">
+      <c r="B20" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" s="14">
+        <v>1</v>
+      </c>
+      <c r="D20" s="14">
+        <v>1034</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" s="23" customFormat="1" ht="33.75" customHeight="1">
+      <c r="B21" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" s="19">
+        <v>1</v>
+      </c>
+      <c r="D21" s="19">
+        <v>1035</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" s="17" customFormat="1" ht="33.75" customHeight="1">
+      <c r="B22" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C22" s="14">
+        <v>1</v>
+      </c>
+      <c r="D22" s="14">
+        <v>1036</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" s="23" customFormat="1" ht="33.75" customHeight="1">
+      <c r="B23" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="C23" s="19">
+        <v>1</v>
+      </c>
+      <c r="D23" s="19">
+        <v>1037</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" s="17" customFormat="1" ht="33.75" customHeight="1">
+      <c r="B24" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C24" s="14">
+        <v>1</v>
+      </c>
+      <c r="D24" s="14">
+        <v>1038</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.70866141732283472" right="0.45" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="52" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="B1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="33.75" customHeight="1"/>
@@ -1873,13 +2245,13 @@
   <sheetData>
     <row r="1" spans="2:9" ht="33.75" customHeight="1">
       <c r="B1" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="2:9" ht="45.75" customHeight="1"/>
     <row r="3" spans="2:9" s="9" customFormat="1" ht="33.75" customHeight="1">
       <c r="B3" s="9" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>10</v>
@@ -1888,19 +2260,19 @@
         <v>11</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="2:9" s="20" customFormat="1" ht="33.75" customHeight="1">
@@ -1918,15 +2290,15 @@
         <v>8</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="H4" s="22" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="2:9" s="8" customFormat="1" ht="33.75" customHeight="1">
       <c r="B5" s="13" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C5" s="14">
         <v>0</v>
@@ -1938,15 +2310,15 @@
         <v>8</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="2:9" s="23" customFormat="1" ht="33.75" customHeight="1">
       <c r="B6" s="18" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C6" s="19">
         <v>0</v>
@@ -1955,22 +2327,22 @@
         <v>3</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="22" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="I6" s="27" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="2:9" s="8" customFormat="1" ht="33.75" customHeight="1">
       <c r="B7" s="13" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C7" s="14">
         <v>1</v>
@@ -1982,15 +2354,15 @@
         <v>8</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="2:9" s="20" customFormat="1" ht="33.75" customHeight="1">
       <c r="B8" s="18" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C8" s="19">
         <v>1</v>
@@ -2002,15 +2374,15 @@
         <v>8</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H8" s="22" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="2:9" s="17" customFormat="1" ht="33.75" customHeight="1">
       <c r="B9" s="13" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C9" s="14">
         <v>1</v>
@@ -2019,21 +2391,21 @@
         <v>1024</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="2:9" s="23" customFormat="1" ht="33.75" customHeight="1">
       <c r="B10" s="18" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C10" s="19">
         <v>1</v>
@@ -2042,14 +2414,14 @@
         <v>1025</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G10" s="24"/>
       <c r="H10" s="22" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="33.75" customHeight="1">

--- a/doc/SRDP.xlsx
+++ b/doc/SRDP.xlsx
@@ -208,9 +208,6 @@
   </si>
   <si>
     <t>The URI of the electronic datasheet (EDS) of the device.</t>
-  </si>
-  <si>
-    <t>&lt;64k octets</t>
   </si>
   <si>
     <t>/device/1/id</t>
@@ -396,6 +393,9 @@
   </si>
   <si>
     <t>Field*</t>
+  </si>
+  <si>
+    <t>&lt; (64k - 12) octets</t>
   </si>
 </sst>
 </file>
@@ -1165,7 +1165,7 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -1233,16 +1233,16 @@
         <v>16</v>
       </c>
       <c r="K3" s="39" t="s">
-        <v>59</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="25.5" customHeight="1" thickBot="1">
       <c r="A4" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D4" s="37" t="s">
         <v>5</v>
@@ -1251,7 +1251,7 @@
         <v>4</v>
       </c>
       <c r="F4" s="40" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G4" s="40" t="s">
         <v>3</v>
@@ -1283,7 +1283,7 @@
     </row>
     <row r="6" spans="1:11" s="26" customFormat="1" ht="13.5" customHeight="1">
       <c r="A6" s="67" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B6" s="25"/>
       <c r="C6" s="46"/>
@@ -1323,7 +1323,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="60" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G8" s="64">
         <v>0</v>
@@ -1370,7 +1370,7 @@
         <v>10</v>
       </c>
       <c r="F10" s="52" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G10" s="48" t="s">
         <v>11</v>
@@ -1404,7 +1404,7 @@
         <v>10</v>
       </c>
       <c r="F11" s="52" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G11" s="48" t="s">
         <v>11</v>
@@ -1424,7 +1424,7 @@
     </row>
     <row r="12" spans="1:11" s="8" customFormat="1" ht="34.5" customHeight="1">
       <c r="A12" s="32" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B12" s="32"/>
       <c r="C12" s="57">
@@ -1437,7 +1437,7 @@
         <v>10</v>
       </c>
       <c r="F12" s="52" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G12" s="48" t="s">
         <v>11</v>
@@ -1483,7 +1483,7 @@
         <v>10</v>
       </c>
       <c r="F14" s="51" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G14" s="47" t="s">
         <v>11</v>
@@ -1516,7 +1516,7 @@
         <v>10</v>
       </c>
       <c r="F15" s="51" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G15" s="47" t="s">
         <v>11</v>
@@ -1537,7 +1537,7 @@
     </row>
     <row r="16" spans="1:11" s="20" customFormat="1" ht="34.5" customHeight="1">
       <c r="A16" s="28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B16" s="28"/>
       <c r="C16" s="56">
@@ -1550,7 +1550,7 @@
         <v>10</v>
       </c>
       <c r="F16" s="51" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G16" s="47" t="s">
         <v>11</v>
@@ -1596,7 +1596,7 @@
         <v>10</v>
       </c>
       <c r="F18" s="52" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G18" s="48" t="s">
         <v>11</v>
@@ -1629,7 +1629,7 @@
         <v>10</v>
       </c>
       <c r="F19" s="52" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G19" s="48" t="s">
         <v>11</v>
@@ -1650,7 +1650,7 @@
     </row>
     <row r="20" spans="1:11" s="8" customFormat="1" ht="34.5" customHeight="1">
       <c r="A20" s="32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B20" s="32"/>
       <c r="C20" s="57">
@@ -1663,7 +1663,7 @@
         <v>10</v>
       </c>
       <c r="F20" s="52" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G20" s="48" t="s">
         <v>11</v>
@@ -1755,12 +1755,12 @@
   <sheetData>
     <row r="1" spans="2:9" ht="33.75" customHeight="1">
       <c r="B1" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="2:9" ht="16.5" customHeight="1">
       <c r="B2" s="66" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="2:9" ht="27.75" customHeight="1">
@@ -1789,7 +1789,7 @@
         <v>40</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="2:9" s="20" customFormat="1" ht="33.75" customHeight="1">
@@ -1807,10 +1807,10 @@
         <v>8</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H5" s="22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="2:9" s="8" customFormat="1" ht="33.75" customHeight="1">
@@ -1857,7 +1857,7 @@
     </row>
     <row r="8" spans="2:9" s="8" customFormat="1" ht="33.75" customHeight="1">
       <c r="B8" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C8" s="14">
         <v>1</v>
@@ -1869,10 +1869,10 @@
         <v>8</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="2:9" s="20" customFormat="1" ht="33.75" customHeight="1">
@@ -1897,7 +1897,7 @@
     </row>
     <row r="10" spans="2:9" s="17" customFormat="1" ht="33.75" customHeight="1">
       <c r="B10" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C10" s="14">
         <v>1</v>
@@ -1906,19 +1906,19 @@
         <v>1024</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G10" s="16"/>
       <c r="H10" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="2:9" s="23" customFormat="1" ht="33.75" customHeight="1">
       <c r="B11" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C11" s="19">
         <v>1</v>
@@ -1927,19 +1927,19 @@
         <v>1025</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G11" s="22"/>
       <c r="H11" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="2:9" s="17" customFormat="1" ht="33.75" customHeight="1">
       <c r="B12" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C12" s="14">
         <v>1</v>
@@ -1948,19 +1948,19 @@
         <v>1026</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G12" s="16"/>
       <c r="H12" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="2:9" s="23" customFormat="1" ht="33.75" customHeight="1">
       <c r="B13" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C13" s="19">
         <v>1</v>
@@ -1972,16 +1972,16 @@
         <v>8</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G13" s="22"/>
       <c r="H13" s="22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="2:9" s="17" customFormat="1" ht="33.75" customHeight="1">
       <c r="B14" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C14" s="14">
         <v>1</v>
@@ -1993,16 +1993,16 @@
         <v>50</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G14" s="16"/>
       <c r="H14" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="2:9" s="23" customFormat="1" ht="33.75" customHeight="1">
       <c r="B15" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C15" s="19">
         <v>1</v>
@@ -2014,16 +2014,16 @@
         <v>8</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G15" s="22"/>
       <c r="H15" s="22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="2:9" s="17" customFormat="1" ht="33.75" customHeight="1">
       <c r="B16" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C16" s="14">
         <v>1</v>
@@ -2035,16 +2035,16 @@
         <v>50</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G16" s="16"/>
       <c r="H16" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="2:8" s="23" customFormat="1" ht="33.75" customHeight="1">
       <c r="B17" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C17" s="19">
         <v>1</v>
@@ -2056,16 +2056,16 @@
         <v>8</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G17" s="22"/>
       <c r="H17" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="2:8" s="17" customFormat="1" ht="33.75" customHeight="1">
       <c r="B18" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C18" s="14">
         <v>1</v>
@@ -2077,16 +2077,16 @@
         <v>50</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G18" s="16"/>
       <c r="H18" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="2:8" s="23" customFormat="1" ht="33.75" customHeight="1">
       <c r="B19" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C19" s="19">
         <v>1</v>
@@ -2098,16 +2098,16 @@
         <v>50</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G19" s="22"/>
       <c r="H19" s="22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="2:8" s="17" customFormat="1" ht="33.75" customHeight="1">
       <c r="B20" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C20" s="14">
         <v>1</v>
@@ -2119,16 +2119,16 @@
         <v>50</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G20" s="16"/>
       <c r="H20" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="2:8" s="23" customFormat="1" ht="33.75" customHeight="1">
       <c r="B21" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C21" s="19">
         <v>1</v>
@@ -2140,16 +2140,16 @@
         <v>8</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G21" s="22"/>
       <c r="H21" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="2:8" s="17" customFormat="1" ht="33.75" customHeight="1">
       <c r="B22" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C22" s="14">
         <v>1</v>
@@ -2161,16 +2161,16 @@
         <v>50</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G22" s="16"/>
       <c r="H22" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="2:8" s="23" customFormat="1" ht="33.75" customHeight="1">
       <c r="B23" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C23" s="19">
         <v>1</v>
@@ -2182,16 +2182,16 @@
         <v>50</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G23" s="22"/>
       <c r="H23" s="22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="2:8" s="17" customFormat="1" ht="33.75" customHeight="1">
       <c r="B24" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C24" s="14">
         <v>1</v>
@@ -2203,11 +2203,11 @@
         <v>50</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G24" s="16"/>
       <c r="H24" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2272,7 +2272,7 @@
         <v>40</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="2:9" s="20" customFormat="1" ht="33.75" customHeight="1">
@@ -2290,10 +2290,10 @@
         <v>8</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H4" s="22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="2:9" s="8" customFormat="1" ht="33.75" customHeight="1">
@@ -2337,12 +2337,12 @@
         <v>54</v>
       </c>
       <c r="I6" s="27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="2:9" s="8" customFormat="1" ht="33.75" customHeight="1">
       <c r="B7" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C7" s="14">
         <v>1</v>
@@ -2354,10 +2354,10 @@
         <v>8</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="2:9" s="20" customFormat="1" ht="33.75" customHeight="1">

--- a/doc/SRDP.xlsx
+++ b/doc/SRDP.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="11580" windowHeight="5370"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="11580" windowHeight="5370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Frame Format" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="113">
   <si>
     <t>CRC16</t>
   </si>
@@ -396,6 +396,15 @@
   </si>
   <si>
     <t>&lt; (64k - 12) octets</t>
+  </si>
+  <si>
+    <t>LH</t>
+  </si>
+  <si>
+    <t>micros, value</t>
+  </si>
+  <si>
+    <t>LB</t>
   </si>
 </sst>
 </file>
@@ -1164,8 +1173,8 @@
   </sheetPr>
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -1734,8 +1743,8 @@
   </sheetPr>
   <dimension ref="B1:I24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="33.75" customHeight="1"/>
@@ -1972,9 +1981,11 @@
         <v>8</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="G13" s="22"/>
+        <v>112</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>111</v>
+      </c>
       <c r="H13" s="22" t="s">
         <v>83</v>
       </c>
@@ -2014,9 +2025,11 @@
         <v>8</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="G15" s="22"/>
+        <v>112</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>111</v>
+      </c>
       <c r="H15" s="22" t="s">
         <v>84</v>
       </c>
@@ -2056,9 +2069,11 @@
         <v>8</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="G17" s="22"/>
+        <v>110</v>
+      </c>
+      <c r="G17" s="22" t="s">
+        <v>111</v>
+      </c>
       <c r="H17" s="22" t="s">
         <v>87</v>
       </c>
@@ -2140,9 +2155,11 @@
         <v>8</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="G21" s="22"/>
+        <v>110</v>
+      </c>
+      <c r="G21" s="22" t="s">
+        <v>111</v>
+      </c>
       <c r="H21" s="22" t="s">
         <v>97</v>
       </c>

--- a/doc/SRDP.xlsx
+++ b/doc/SRDP.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="114">
   <si>
     <t>CRC16</t>
   </si>
@@ -405,6 +405,9 @@
   </si>
   <si>
     <t>LB</t>
+  </si>
+  <si>
+    <t>red, green, blue</t>
   </si>
 </sst>
 </file>
@@ -1743,8 +1746,8 @@
   </sheetPr>
   <dimension ref="B1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="33.75" customHeight="1"/>
@@ -1962,7 +1965,9 @@
       <c r="F12" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="G12" s="16"/>
+      <c r="G12" s="16" t="s">
+        <v>113</v>
+      </c>
       <c r="H12" s="16" t="s">
         <v>81</v>
       </c>

--- a/doc/SRDP.xlsx
+++ b/doc/SRDP.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="11580" windowHeight="5370" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="11580" windowHeight="5370"/>
   </bookViews>
   <sheets>
     <sheet name="Frame Format" sheetId="3" r:id="rId1"/>
@@ -414,7 +414,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -502,6 +502,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -706,7 +714,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -860,12 +868,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -877,6 +879,42 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1176,8 +1214,8 @@
   </sheetPr>
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -1294,7 +1332,7 @@
       <c r="K5" s="49"/>
     </row>
     <row r="6" spans="1:11" s="26" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="65" t="s">
         <v>69</v>
       </c>
       <c r="B6" s="25"/>
@@ -1320,36 +1358,36 @@
       <c r="J7" s="46"/>
       <c r="K7" s="50"/>
     </row>
-    <row r="8" spans="1:11" s="65" customFormat="1" ht="34.5" customHeight="1" thickTop="1">
+    <row r="8" spans="1:11" s="63" customFormat="1" ht="34.5" customHeight="1" thickTop="1">
       <c r="A8" s="59" t="s">
         <v>33</v>
       </c>
       <c r="B8" s="59"/>
-      <c r="C8" s="61">
-        <v>1</v>
-      </c>
-      <c r="D8" s="62">
-        <v>1</v>
-      </c>
-      <c r="E8" s="63">
+      <c r="C8" s="76">
+        <v>1</v>
+      </c>
+      <c r="D8" s="77">
+        <v>0</v>
+      </c>
+      <c r="E8" s="61">
         <v>0</v>
       </c>
       <c r="F8" s="60" t="s">
         <v>71</v>
       </c>
-      <c r="G8" s="64">
+      <c r="G8" s="62">
         <v>0</v>
       </c>
-      <c r="H8" s="64" t="s">
+      <c r="H8" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="I8" s="64" t="s">
+      <c r="I8" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="J8" s="64" t="s">
+      <c r="J8" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="60" t="str">
+      <c r="K8" s="70" t="str">
         <f>"-"</f>
         <v>-</v>
       </c>
@@ -1372,11 +1410,11 @@
         <v>9</v>
       </c>
       <c r="B10" s="32"/>
-      <c r="C10" s="57">
-        <v>1</v>
-      </c>
-      <c r="D10" s="44">
-        <v>2</v>
+      <c r="C10" s="74">
+        <v>1</v>
+      </c>
+      <c r="D10" s="75">
+        <v>1</v>
       </c>
       <c r="E10" s="43" t="s">
         <v>10</v>
@@ -1390,13 +1428,13 @@
       <c r="H10" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="48" t="s">
+      <c r="I10" s="68" t="s">
         <v>13</v>
       </c>
       <c r="J10" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="K10" s="52" t="str">
+      <c r="K10" s="69" t="str">
         <f>"-"</f>
         <v>-</v>
       </c>
@@ -1410,7 +1448,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11" s="43" t="s">
         <v>10</v>
@@ -1443,7 +1481,7 @@
         <v>3</v>
       </c>
       <c r="D12" s="44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12" s="43" t="s">
         <v>10</v>
@@ -1489,7 +1527,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E14" s="42" t="s">
         <v>10</v>
@@ -1518,11 +1556,11 @@
         <v>18</v>
       </c>
       <c r="B15" s="28"/>
-      <c r="C15" s="56">
+      <c r="C15" s="72">
         <v>2</v>
       </c>
-      <c r="D15" s="41">
-        <v>3</v>
+      <c r="D15" s="73">
+        <v>2</v>
       </c>
       <c r="E15" s="42" t="s">
         <v>10</v>
@@ -1536,13 +1574,13 @@
       <c r="H15" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="I15" s="47" t="s">
+      <c r="I15" s="66" t="s">
         <v>28</v>
       </c>
       <c r="J15" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="K15" s="51" t="str">
+      <c r="K15" s="67" t="str">
         <f>"-"</f>
         <v>-</v>
       </c>
@@ -1556,7 +1594,7 @@
         <v>3</v>
       </c>
       <c r="D16" s="41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E16" s="42" t="s">
         <v>10</v>
@@ -1602,7 +1640,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="44">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E18" s="43" t="s">
         <v>10</v>
@@ -1635,7 +1673,7 @@
         <v>2</v>
       </c>
       <c r="D19" s="44">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E19" s="43" t="s">
         <v>10</v>
@@ -1669,7 +1707,7 @@
         <v>3</v>
       </c>
       <c r="D20" s="44">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E20" s="43" t="s">
         <v>10</v>
@@ -1746,7 +1784,7 @@
   </sheetPr>
   <dimension ref="B1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -1771,12 +1809,12 @@
       </c>
     </row>
     <row r="2" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="64" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="3" spans="2:9" ht="27.75" customHeight="1">
-      <c r="B3" s="66"/>
+      <c r="B3" s="64"/>
     </row>
     <row r="4" spans="2:9" s="9" customFormat="1" ht="33.75" customHeight="1">
       <c r="B4" s="9" t="s">
